--- a/Checklist/Checklist grupo#4_cp.xlsx
+++ b/Checklist/Checklist grupo#4_cp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MET.SOFTWARE\proyecto-riego\Checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos\Documentos\GitHub\proyecto-riego\Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C9C369-53E1-43AD-B6EB-25680BD8AF75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CheckList" sheetId="1" r:id="rId1"/>
@@ -104,19 +103,19 @@
     <t>REQ2: El sistema debe evitar que la bomba se estropee por funcionar en vacío, nunca se accionará la bomba cuando el depósito de agua esté vacío.</t>
   </si>
   <si>
-    <t xml:space="preserve">REQ6: El sistema debe notificar el estado actual de la tierra                                                </t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
     <t>C</t>
   </si>
+  <si>
+    <t xml:space="preserve">REQ6: El sistema debe notificar el estado actual de la tierra     .                                           </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,6 +300,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2040,10 +2042,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3287,10 +3289,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3316,8 +3320,8 @@
       <c r="F2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>25</v>
+      <c r="G2" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>22</v>
@@ -3331,7 +3335,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -3346,7 +3350,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>

--- a/Checklist/Checklist grupo#4_cp.xlsx
+++ b/Checklist/Checklist grupo#4_cp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos\Documentos\GitHub\proyecto-riego\Checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MET.SOFTWARE\proyecto-riego\Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F20ECD5-35B7-4F67-850E-D6A113B73F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CheckList" sheetId="1" r:id="rId1"/>
@@ -115,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2042,7 +2043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3289,11 +3290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
